--- a/Compititor's_Price/Recticel_Prices/Recticel_Prices_01-03-2025.xlsx
+++ b/Compititor's_Price/Recticel_Prices/Recticel_Prices_01-03-2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priyanka\Documents\Search_for_product_on_Competitor's\Compititor's_Price\Recticel_Prices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priyanka\Documents\Price_Comp_Dashboard\Compititor's_Price\Recticel_Prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D341E9F0-B8BC-4477-A71A-50B1DFA715A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D7112A-4D14-441B-8228-A39CFC19FCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37770" yWindow="3135" windowWidth="15525" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1177,1202 +1177,1142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" t="s">
-        <v>47</v>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s">
         <v>55</v>
       </c>
-      <c r="J4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" t="s">
-        <v>62</v>
+      <c r="M9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" t="s">
+        <v>146</v>
+      </c>
+      <c r="N10" t="s">
+        <v>139</v>
+      </c>
+      <c r="O10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N11" t="s">
+        <v>159</v>
+      </c>
+      <c r="O11" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12" t="s">
+        <v>165</v>
+      </c>
+      <c r="O12" t="s">
+        <v>172</v>
+      </c>
+      <c r="P12" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" t="s">
+        <v>184</v>
+      </c>
+      <c r="M13" t="s">
+        <v>185</v>
+      </c>
+      <c r="N13" t="s">
+        <v>176</v>
+      </c>
+      <c r="O13" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" t="s">
+        <v>197</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M14" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" t="s">
+        <v>191</v>
+      </c>
+      <c r="O14" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15" t="s">
+        <v>211</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" t="s">
+        <v>191</v>
+      </c>
+      <c r="M15" t="s">
+        <v>213</v>
+      </c>
+      <c r="N15" t="s">
+        <v>214</v>
+      </c>
+      <c r="O15" t="s">
+        <v>215</v>
+      </c>
+      <c r="P15" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R5" t="s">
-        <v>77</v>
+      <c r="I16" t="s">
+        <v>224</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>225</v>
+      </c>
+      <c r="L16" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" t="s">
+        <v>226</v>
+      </c>
+      <c r="N16" t="s">
+        <v>227</v>
+      </c>
+      <c r="O16" t="s">
+        <v>228</v>
+      </c>
+      <c r="P16" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R6" t="s">
-        <v>93</v>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>234</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M7" t="s">
-        <v>104</v>
-      </c>
-      <c r="N7" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>108</v>
-      </c>
-      <c r="R7" t="s">
-        <v>109</v>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>239</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>234</v>
+      </c>
+      <c r="N18" t="s">
+        <v>240</v>
+      </c>
+      <c r="O18" t="s">
+        <v>241</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>118</v>
-      </c>
-      <c r="M8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N8" t="s">
-        <v>120</v>
-      </c>
-      <c r="O8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P8" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" t="s">
-        <v>124</v>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>234</v>
+      </c>
+      <c r="N19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O19" t="s">
+        <v>248</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
-        <v>133</v>
-      </c>
-      <c r="M9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" t="s">
-        <v>134</v>
-      </c>
-      <c r="O9" t="s">
-        <v>135</v>
-      </c>
-      <c r="P9" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" t="s">
-        <v>55</v>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>253</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" t="s">
-        <v>146</v>
-      </c>
-      <c r="O10" t="s">
-        <v>139</v>
-      </c>
-      <c r="P10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>148</v>
-      </c>
-      <c r="R10" t="s">
-        <v>149</v>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>258</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" t="s">
-        <v>155</v>
-      </c>
-      <c r="J11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s">
-        <v>157</v>
-      </c>
-      <c r="M11" t="s">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s">
-        <v>158</v>
-      </c>
-      <c r="O11" t="s">
-        <v>159</v>
-      </c>
-      <c r="P11" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>161</v>
-      </c>
-      <c r="R11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>168</v>
-      </c>
-      <c r="I12" t="s">
-        <v>169</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" t="s">
-        <v>170</v>
-      </c>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" t="s">
-        <v>171</v>
-      </c>
-      <c r="O12" t="s">
-        <v>165</v>
-      </c>
-      <c r="P12" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>173</v>
-      </c>
-      <c r="R12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" t="s">
-        <v>180</v>
-      </c>
-      <c r="I13" t="s">
-        <v>181</v>
-      </c>
-      <c r="J13" t="s">
-        <v>182</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s">
-        <v>183</v>
-      </c>
-      <c r="M13" t="s">
-        <v>184</v>
-      </c>
-      <c r="N13" t="s">
-        <v>185</v>
-      </c>
-      <c r="O13" t="s">
-        <v>176</v>
-      </c>
-      <c r="P13" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>187</v>
-      </c>
-      <c r="R13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" t="s">
-        <v>192</v>
-      </c>
-      <c r="F14" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" t="s">
-        <v>195</v>
-      </c>
-      <c r="I14" t="s">
-        <v>196</v>
-      </c>
-      <c r="J14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" t="s">
-        <v>198</v>
-      </c>
-      <c r="M14" t="s">
-        <v>199</v>
-      </c>
-      <c r="N14" t="s">
-        <v>200</v>
-      </c>
-      <c r="O14" t="s">
-        <v>191</v>
-      </c>
-      <c r="P14" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>202</v>
-      </c>
-      <c r="R14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G15" t="s">
-        <v>208</v>
-      </c>
-      <c r="H15" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" t="s">
-        <v>210</v>
-      </c>
-      <c r="J15" t="s">
-        <v>211</v>
-      </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
-        <v>212</v>
-      </c>
-      <c r="M15" t="s">
-        <v>191</v>
-      </c>
-      <c r="N15" t="s">
-        <v>213</v>
-      </c>
-      <c r="O15" t="s">
-        <v>214</v>
-      </c>
-      <c r="P15" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>216</v>
-      </c>
-      <c r="R15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" t="s">
-        <v>221</v>
-      </c>
-      <c r="G16" t="s">
-        <v>222</v>
-      </c>
-      <c r="H16" t="s">
-        <v>223</v>
-      </c>
-      <c r="I16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" t="s">
-        <v>224</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="s">
-        <v>225</v>
-      </c>
-      <c r="M16" t="s">
-        <v>177</v>
-      </c>
-      <c r="N16" t="s">
-        <v>226</v>
-      </c>
-      <c r="O16" t="s">
-        <v>227</v>
-      </c>
-      <c r="P16" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>229</v>
-      </c>
-      <c r="R16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" t="s">
-        <v>234</v>
-      </c>
-      <c r="O17" t="s">
-        <v>159</v>
-      </c>
-      <c r="P17" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>238</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" t="s">
-        <v>239</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" t="s">
-        <v>234</v>
-      </c>
-      <c r="O18" t="s">
-        <v>240</v>
-      </c>
-      <c r="P18" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>246</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" t="s">
-        <v>239</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>234</v>
-      </c>
-      <c r="O19" t="s">
-        <v>247</v>
-      </c>
-      <c r="P19" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" t="s">
-        <v>253</v>
-      </c>
-      <c r="J20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D21" t="s">
-        <v>257</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" t="s">
-        <v>258</v>
-      </c>
-      <c r="J21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D22" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
@@ -2384,10 +2324,10 @@
         <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="I22" t="s">
-        <v>263</v>
+        <v>26</v>
       </c>
       <c r="J22" t="s">
         <v>26</v>
@@ -2411,9 +2351,6 @@
         <v>26</v>
       </c>
       <c r="Q22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R22" t="s">
         <v>264</v>
       </c>
     </row>
